--- a/products.xlsx
+++ b/products.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -57,102 +57,120 @@
     <t>A strawberry is both a low-growing, flowering plant and also the name of the fruit that it produces. Strawberries are soft, sweet, bright red berries. They're also delicious. Strawberries have tiny edible seeds, which grow all over their surface.</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Dalat strawberry</t>
+  </si>
+  <si>
+    <t>200000.0</t>
+  </si>
+  <si>
+    <t>assets/img/products/product-img-1_1.jpg</t>
+  </si>
+  <si>
+    <t>Strawberries are red, succulent, have a sweet candy aroma and have a rich, sweet taste, different from all other types of strawberries being grown in Da Lat and surrounding areas today:</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Tangerine</t>
+  </si>
+  <si>
+    <t>45000.0</t>
+  </si>
+  <si>
+    <t>assets\img\products\qd.jpg</t>
+  </si>
+  <si>
+    <t>Lai Vung tangerines are succulent and sweet, a famous specialty of Lai Vung - Dong Thap. Characterized by a peel with a pleasant aroma like essential oils, large round fruit, thin and shiny peel that is easy to peel, super succulent tangerine segments, sweet taste mixed with a slight sourness.</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>12000.0</t>
+  </si>
+  <si>
+    <t>assets\img\products\cx.jpg</t>
+  </si>
+  <si>
+    <t>Orange is a fruit tree in the same family as grapefruit. It has a fruit smaller than a grapefruit, with thin skin. Depending on the type, it is orange or green when ripe, with a sweet or slightly sour taste.</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Thai Rambutan</t>
+  </si>
+  <si>
+    <t>55000.0</t>
+  </si>
+  <si>
+    <t>assets\img\products\cc.jpg</t>
+  </si>
+  <si>
+    <t>Rambutan is as small as a golf ball with a hairy red and blue shell that looks a bit like a sea urchin. When eating rambutan, the clear white flesh has a mild sweet taste and has seeds in the center.</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>50000.0</t>
+  </si>
+  <si>
+    <t>assets\img\products\mc.jpg</t>
+  </si>
+  <si>
+    <t>When ripe, mangosteen fruit has a thick, dark purple-red outer skin. The flesh is ivory white and divided into many segments, has a sweet and sour taste and an attractive aroma. Mangosteen contains a lot of protein, calcium, iron, phosphorus, etc., so it is very good for health.</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Sapoche</t>
+  </si>
+  <si>
+    <t>assets\img\products\spc.jpg</t>
+  </si>
+  <si>
+    <t>With a thin, light brown skin, fragrant, very sweet and succulent when ripe, saboche is an ideal fruit for dessert or refreshment. Saboche has a sweet taste because it contains a lot of fructose and sucrose, so this is a natural food that helps increase the body energy.</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Tangerine</t>
-  </si>
-  <si>
-    <t>45000.0</t>
-  </si>
-  <si>
-    <t>assets\img\products\qd.jpg</t>
-  </si>
-  <si>
-    <t>Lai Vung tangerines are succulent and sweet, a famous specialty of Lai Vung - Dong Thap. Characterized by a peel with a pleasant aroma like essential oils, large round fruit, thin and shiny peel that is easy to peel, super succulent tangerine segments, sweet taste mixed with a slight sourness.</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>12000.0</t>
-  </si>
-  <si>
-    <t>assets\img\products\cx.jpg</t>
-  </si>
-  <si>
-    <t>Orange is a fruit tree in the same family as grapefruit. It has a fruit smaller than a grapefruit, with thin skin. Depending on the type, it is orange or green when ripe, with a sweet or slightly sour taste.</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Thai Rambutan</t>
-  </si>
-  <si>
-    <t>55000.0</t>
-  </si>
-  <si>
-    <t>assets\img\products\cc.jpg</t>
-  </si>
-  <si>
-    <t>Rambutan is as small as a golf ball with a hairy red and blue shell that looks a bit like a sea urchin. When eating rambutan, the clear white flesh has a mild sweet taste and has seeds in the center.</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>50000.0</t>
-  </si>
-  <si>
-    <t>assets\img\products\mc.jpg</t>
-  </si>
-  <si>
-    <t>When ripe, mangosteen fruit has a thick, dark purple-red outer skin. The flesh is ivory white and divided into many segments, has a sweet and sour taste and an attractive aroma. Mangosteen contains a lot of protein, calcium, iron, phosphorus, etc., so it is very good for health.</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Sapoche</t>
-  </si>
-  <si>
-    <t>assets\img\products\spc.jpg</t>
-  </si>
-  <si>
-    <t>With a thin, light brown skin, fragrant, very sweet and succulent when ripe, saboche is an ideal fruit for dessert or refreshment. Saboche has a sweet taste because it contains a lot of fructose and sucrose, so this is a natural food that helps increase the body energy.</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Berry</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -246,6 +264,18 @@
     <t>Longan is a longan variety that produces the largest fruit. The rice of the longan fruit is easy to recognize because it is ivory yellow, crunchy and very delicious.</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Hoa Loc Mango</t>
+  </si>
+  <si>
+    <t>assets\img\products\xoai.jpg</t>
+  </si>
+  <si>
+    <t>Hoa Loc mangoes are usually eaten when ripe. When eating a piece of mango in the mouth, the mango has a rich, pleasant aroma, the flesh is golden yellow, not at all greasy, the sweetness is deep, the aftertaste is good, and after eating, the mouth still smells. fragrant scent for an hour.</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -261,9 +291,6 @@
     <t>Cau Duc pineapple belongs to the Queen variety. The unique feature of this variety is that the fruit has an elegant shape, short stem, small core, bulging eyes, slightly deep eye pits, dark yellow flesh, little fiber, little juice, crunchy and sweet. In particular, Cau Duc pineapple can be left for about 10-15 days without rotting.</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Lemon</t>
   </si>
   <si>
@@ -285,9 +312,6 @@
     <t>Avocado 034 is an avocado variety that is considered a type of avocado that produces fruit in the main season and off-season, has high yield, and has the best fruit quality among current avocado varieties.</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -318,7 +342,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Orther</t>
+    <t>Other</t>
   </si>
   <si>
     <t>4</t>
@@ -791,8 +815,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cfe7e51d-43a3-4f05-a2a2-88ba68cb9c48}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9b5a0f0d-ff65-452d-9b9b-e50c37df6a2f}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -962,22 +986,22 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75">
@@ -988,22 +1012,22 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75">
@@ -1014,33 +1038,33 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -1052,10 +1076,10 @@
         <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75">
@@ -1075,59 +1099,59 @@
         <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -1138,48 +1162,48 @@
     </row>
     <row r="14" spans="1:8" ht="12.75">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75">
       <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1190,80 +1214,132 @@
     </row>
     <row r="16" spans="1:8" ht="12.75">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="H16" t="s">
         <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75">
       <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>97</v>
       </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75">
       <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75">
+      <c r="A19" t="s">
         <v>103</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
         <v>105</v>
       </c>
-      <c r="G18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690f1610-998e-4491-a1a1-dbda263bc6ec}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2d5e8b9a-dffd-49f1-bd0c-aa665923e77e}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -1281,7 +1357,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
